--- a/assets/drugs_data.xlsx
+++ b/assets/drugs_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndriodStudioProjectsFile\yho_commercial app\pharmacy_guide2\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A4A4CC-0E5E-46D0-98C9-69890B2BDE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D9FD1C-0A01-4035-B5CB-DF810D91D905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C1F0CCCF-CBF3-4175-BCAA-A91EE6202786}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$663</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$L$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$L$90</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="2134">
   <si>
     <t xml:space="preserve">Drug Name </t>
   </si>
@@ -5964,14 +5964,6 @@
     <t>Magnesium Trisilicate 300 mg, Dried Aluminium Hydroxide Gel 250 mg, Magnesium Hydroxide 100 mg, Simethicone 40 mg</t>
   </si>
   <si>
-    <t>Antigas is used to provide symptomatic relief in gastric and duodenal ulcer and in reflux oesophagitis
-is used in the treatment of hyperchlorhydria, flatulence and meteorism, and for the relief of abdominal distension.</t>
-  </si>
-  <si>
-    <t>1 or 2 tablets, 3-4 times a day, after meals and at bed time, or as directed by the physician.
-Chew the tablets before swallowing</t>
-  </si>
-  <si>
     <t>Antacid</t>
   </si>
   <si>
@@ -5981,16 +5973,6 @@
     <t>Lactulose 3.35 g/5 ml</t>
   </si>
   <si>
-    <t>Lactulose is a hyperosmolar laxative which is used as an effective treatment approach for constipation. It is a non-absorbable disaccharide which draws water into the bowel; causes distention through fluid accumulation, thus promotes soft stool and accelerates bowel motion.
-Lactulose is used in the treatment of chronic and habitual constipation</t>
-  </si>
-  <si>
-    <t>Adults (including elderly): 15 ml twice daily
-Children 5 to 10 years: 10 ml twice daily
-Children under 5 years: 5 ml twice daily
-Babies under 1 year: 2.5 ml twice daily</t>
-  </si>
-  <si>
     <t>Cramps, Nausea, Diarrhea, Flatulence</t>
   </si>
   <si>
@@ -6000,15 +5982,6 @@
     <t>Microencapsulated Probiotics (Lactobacillus acidophillus : 10 billions, Bifidobacterium longum : 1.67 billions, Enterococcus faecalis : 1.67 billions, Streptococcus thermophilus : 1.5 billions) , Microencapsulated Prebiotics (Chicory extract powder :370mg , Fructooligosaccharide : 350mg , Vegetable cream powder : 1500mg ), Magnesium stearate : 17.5mg</t>
   </si>
   <si>
-    <t>Probiotic and prebiotic which supports Digestive Health, Healthy intestinal Flora Balance, Natural bowel function, Body Natural Defense.
-To improve digestive conditions (diarrhoea ,constipation etc.)
-To improve immune system</t>
-  </si>
-  <si>
-    <t>Under 12 years ; Half of a sachet daily
-Above 12 years ; 1 sachet daily.</t>
-  </si>
-  <si>
     <t>Colimix Syrup</t>
   </si>
   <si>
@@ -6024,11 +5997,6 @@
     <t>Bisacodyl 5 mg</t>
   </si>
   <si>
-    <t>Delax is used to treat constipation.
-Bisacodyl is known as a stimulant laxative.
-It works by increasing the movement of the intestines, helping the stool to come out.</t>
-  </si>
-  <si>
     <t>Nausea, Diarrhoea, Stomach pain</t>
   </si>
   <si>
@@ -6053,15 +6021,7 @@
     <t>Fame Biogurt</t>
   </si>
   <si>
-    <t>Each capsule contains: Probiotics (Functional yogurt) 300 mg containing live Lactobacillus acidophilus 875 million and
-Bifidobacterium lactis 875 million</t>
-  </si>
-  <si>
     <t>Fame Biogurt is indicated for prevention and treatment of diarrhoea, to restore normal flora after diarrhoea or antibiotic therapy, irritable bowel syndrome (IBS) and Immunoenhancement.</t>
-  </si>
-  <si>
-    <t>(Prevention) 5-12 years – one capsule daily, 12 years and above – two capsules daily.
-(Treatment) 5-12 years – one capsule two times daily, 12 years and above – two capsules two times daily. The dosage can be adjusted according to requirement.</t>
   </si>
   <si>
     <t>Well tolerated in recommended dose.</t>
@@ -6107,10 +6067,6 @@
     <t>Aluminium oxide , Magnesium hydroxide, Activated dimethylpolysiloxane</t>
   </si>
   <si>
-    <t>Konimag Suspension is used for the treatment, control, prevention, &amp; improvement of 
-Stomach upset, Heartburn, Acid indigestion, Stomach acid, Increases water in the intestines</t>
-  </si>
-  <si>
     <t>Generally, 1 or 2 sachets (10 mL) 3 times daily, between meals or bedtime, or as directed by a physician.</t>
   </si>
   <si>
@@ -6120,15 +6076,6 @@
     <t>Life Extension Enhanced Super Digestive Enzymes</t>
   </si>
   <si>
-    <t>Vegetarian Digestive Enzyme Blend 140 mg
-Protease SP (A. oryzae, B. subtilis) 25,000 FCC (HUT), Bromelain (A. comosus) 800,000 FCC (PU), Lactase (A. oryzae) 2,000 FCC (ALU), Cellulase (A. niger) 2,000 FCC (CU), Lipase (C. rugosa) 2,500 FCC (FIP), Alpha Galactosidase (A. niger) 150 (GalU), Hemicellulase (A. niger) 4,000 (HCU), Pectinase (A. niger) 25 (endo-PGU), Protease 3.0 (A. niger) 10 (SAPU), Xylanase (T. longibrachiatum) 500 (XU)</t>
-  </si>
-  <si>
-    <t>Digestive enzymes are essential to the body’s absorption and optimal utilization of food and all its nutrients.
-Enhanced Super Digestive Enzymes provides specific enzymes required to support the natural reactions that break down food — demonstrated to optimize digestion and nutrient absorption.
-Here is the broad array of enzymes contained in this formula: Protease to help break down proteins, Amylase to break down starch and short sugar chains called oligosaccharides, Lipase to break down fats, Cellulase to break down the indigestible polysaccharide in dietary cellulose, Lactase to break down lactose</t>
-  </si>
-  <si>
     <t>Take one capsule one to two times daily prior to the heaviest meals, or as recommended by a healthcare practitioner.</t>
   </si>
   <si>
@@ -6138,16 +6085,6 @@
     <t>Magnesium Hydroxide 250 mg</t>
   </si>
   <si>
-    <t>M.O.M is used as a laxative to relieve occasional constipation.
-It is also used as an antacid to relieve indigestion, sour stomach, and heartburn.
-It reduces stomach acid, and increases water in the intestines which may induce bowel movements.</t>
-  </si>
-  <si>
-    <t>Children - 1-2 Tablets, 2-3 times per day.
-Adult - 2-4 Tablets, 2-3 times per day
-or As directed by the physician</t>
-  </si>
-  <si>
     <t>Common side effects may include diarrhea or a decreased sense of taste.</t>
   </si>
   <si>
@@ -6164,6 +6101,449 @@
   </si>
   <si>
     <t>Children over 12 years and adults: one capsule two or three times per day.</t>
+  </si>
+  <si>
+    <t>Lactulose is a hyperosmolar laxative which is used as an effective treatment approach for constipation. It is a non-absorbable disaccharide which draws water into the bowel; causes distention through fluid accumulation, thus promotes soft stool and accelerates bowel motion.Lactulose is used in the treatment of chronic and habitual constipation</t>
+  </si>
+  <si>
+    <t>Adults (including elderly): 15 ml twice daily, Children 5 to 10 years: 10 ml twice daily, Children under 5 years: 5 ml twice daily, Babies under 1 year: 2.5 ml twice daily</t>
+  </si>
+  <si>
+    <t>Antigas is used to provide symptomatic relief in gastric and duodenal ulcer and in reflux oesophagitis is used in the treatment of hyperchlorhydria, flatulence and meteorism, and for the relief of abdominal distension.</t>
+  </si>
+  <si>
+    <t>1 or 2 tablets, 3-4 times a day, after meals and at bed time, or as directed by the physician. Chew the tablets before swallowing</t>
+  </si>
+  <si>
+    <t>Probiotic and prebiotic which supports Digestive Health, Healthy intestinal Flora Balance, Natural bowel function, Body Natural Defense. To improve digestive conditions (diarrhoea ,constipation etc.). To improve immune system</t>
+  </si>
+  <si>
+    <t>Under 12 years ; Half of a sachet daily, Above 12 years ; 1 sachet daily.</t>
+  </si>
+  <si>
+    <t>Delax is used to treat constipation. Bisacodyl is known as a stimulant laxative. It works by increasing the movement of the intestines, helping the stool to come out.</t>
+  </si>
+  <si>
+    <t>Each capsule contains: Probiotics (Functional yogurt) 300 mg containing live Lactobacillus acidophilus 875 million and Bifidobacterium lactis 875 million</t>
+  </si>
+  <si>
+    <t>(Prevention) 5-12 years – one capsule daily, 12 years and above – two capsules daily. (Treatment) 5-12 years – one capsule two times daily, 12 years and above – two capsules two times daily. The dosage can be adjusted according to requirement.</t>
+  </si>
+  <si>
+    <t>Vegetarian Digestive Enzyme Blend 140 mg, Protease SP (A. oryzae, B. subtilis) 25,000 FCC (HUT), Bromelain (A. comosus) 800,000 FCC (PU), Lactase (A. oryzae) 2,000 FCC (ALU), Cellulase (A. niger) 2,000 FCC (CU), Lipase (C. rugosa) 2,500 FCC (FIP), Alpha Galactosidase (A. niger) 150 (GalU), Hemicellulase (A. niger) 4,000 (HCU), Pectinase (A. niger) 25 (endo-PGU), Protease 3.0 (A. niger) 10 (SAPU), Xylanase (T. longibrachiatum) 500 (XU)</t>
+  </si>
+  <si>
+    <t>Digestive enzymes are essential to the body’s absorption and optimal utilization of food and all its nutrients. Enhanced Super Digestive Enzymes provides specific enzymes required to support the natural reactions that break down food — demonstrated to optimize digestion and nutrient absorption. Here is the broad array of enzymes contained in this formula: Protease to help break down proteins, Amylase to break down starch and short sugar chains called oligosaccharides, Lipase to break down fats, Cellulase to break down the indigestible polysaccharide in dietary cellulose, Lactase to break down lactose</t>
+  </si>
+  <si>
+    <t>Konimag Suspension is used for the treatment, control, prevention, &amp; improvement of Stomach upset, Heartburn, Acid indigestion, Stomach acid, Increases water in the intestines</t>
+  </si>
+  <si>
+    <t>M.O.M is used as a laxative to relieve occasional constipation. It is also used as an antacid to relieve indigestion, sour stomach, and heartburn. It reduces stomach acid, and increases water in the intestines which may induce bowel movements.</t>
+  </si>
+  <si>
+    <t>Children - 1-2 Tablets, 2-3 times per day. Adult - 2-4 Tablets, 2-3 times per day or As directed by the physician</t>
+  </si>
+  <si>
+    <t>Movicol</t>
+  </si>
+  <si>
+    <t>Polyethylene glycol 13.125 g, Sodium chloride 350.7 mg, Sodium bicarbonate 178.5 mg, Potassium chloride 46.6 mg</t>
+  </si>
+  <si>
+    <t>Abdominal distension and pain, nausea, flatulence, dyspepsia, headache, peripheral oedema, allergic reactions</t>
+  </si>
+  <si>
+    <t>Chronic constipation: Adults &amp; Children: Over 12 yr, 1-3 sachets daily in divided doses usually for up to 2 wk; contents of each sachet dissolved in half a glass (approx 125 mL) of water; maintenance, 1-2 sachets daily. Faecal impaction: Adults &amp; Children: Over 12 yr, 8 sachets daily dissolved in 1 litre of water and drunk within 6 hr, usually for max 3 days. After reconstitution the solution should be kept in a refrigerator and discarded if unused after 6 hr</t>
+  </si>
+  <si>
+    <t>It is a laxative for the treatment of constipation in adults, adolescents and elderly. It helps you to have a comfortable bowel movement even if you have been constipated for a long time. It is also used for bowel cleansing prior to colonoscopy.</t>
+  </si>
+  <si>
+    <t>Rabeprazole</t>
+  </si>
+  <si>
+    <t>Pariet (14 Tabs)</t>
+  </si>
+  <si>
+    <t>Gastro</t>
+  </si>
+  <si>
+    <t>As directed by the physicians</t>
+  </si>
+  <si>
+    <t>Diarrhea, Nausea, Abdominal pain, Flatulence, Constipation, Cough, Insomnia, Chest pain</t>
+  </si>
+  <si>
+    <t>It work by lowering the amount of acid that your stomach produces. It is used to treat ‘Gastro-oesophageal reflux disease such as heartburn and regurgitation, Ulcers in your stomach or the upper part of your gut (intestine), ‘Helicobacter pylori’ (H. Pylori) infection, Zollinger-Ellison Syndrome</t>
+  </si>
+  <si>
+    <t>Spacovin 40 mg</t>
+  </si>
+  <si>
+    <t>Drotaverine 40 mg</t>
+  </si>
+  <si>
+    <t>Spanil</t>
+  </si>
+  <si>
+    <t>Hyoscine Butylbromide 10 mg</t>
+  </si>
+  <si>
+    <t>Spanil is used in treatment of pain due to muscle spasm in the stomach, intestine and bladder. It is also used to relieve the symptoms of irritable bowel syndrome (symptoms include abdominal pain, cramping, bloating, and diarrhea or constipation)</t>
+  </si>
+  <si>
+    <t>he most common side effects are blurred vision, increased heart rate, dryness in mouth, and dilatation of pupil.</t>
+  </si>
+  <si>
+    <t>Tricaine MPS Gel 180 ml</t>
+  </si>
+  <si>
+    <t>Aluminium hydroxide 300 mg, Magnesium hydroxide 150 mg, Simethicone 125 mg, Oxethazaine 10 mg</t>
+  </si>
+  <si>
+    <t>Itching, Tongue inflammation, Dizziness, Drowsiness</t>
+  </si>
+  <si>
+    <t>Tricaine MPS gel is a potent local anesthetic, prescribed for rapid and effective relief in gastritis, esophagitis, heartburn and peptic ulcer.</t>
+  </si>
+  <si>
+    <t>5-10 ml, 3 times daily after meals, and at bedtime. Shake the bottle before use.</t>
+  </si>
+  <si>
+    <t>Varogel</t>
+  </si>
+  <si>
+    <t>Aluminium oxide 0.4 g, Magnesium hydroxide 0.8004 g, Simethicone 0.08 g</t>
+  </si>
+  <si>
+    <t>Vertamin Tablet</t>
+  </si>
+  <si>
+    <t>Dimenhydrinate 25 mg, Pyridoxine 25 mg</t>
+  </si>
+  <si>
+    <t>Vertamin tablet is used to relieve symptom of vomiting, vertigo and motion sickness.</t>
+  </si>
+  <si>
+    <t>This drug cause drowsiness and should not be used when performing tasks which require alertness (e.g. driving or operating machinery).</t>
+  </si>
+  <si>
+    <t>One tablet three times a day after meal.</t>
+  </si>
+  <si>
+    <t>Drotaverineis an antispasmodic drug. It works by relaxing the smooth muscle of the gut. It is used to relieve pain caused due to irritable bowel syndrome, menstrual periods &amp; cervical spasm during labor.</t>
+  </si>
+  <si>
+    <t>Vertigo, Nausea, Vomiting, Dry mouth</t>
+  </si>
+  <si>
+    <t>Varogel Suspension is used for the treatment, control, prevention, &amp; improvement of the following diseases, conditions, and symptoms: Stomach upset, Heartburn, Acid indigestion, Stomach acid, Increases water in the intestines</t>
+  </si>
+  <si>
+    <t>Ametret Cream 15 g</t>
+  </si>
+  <si>
+    <t>Tretinoin 0.025 % w/w</t>
+  </si>
+  <si>
+    <t>Ametret Cream is used for Acne vulgaris eg, acne polymorphic predominant microcyst or inflammation, acne monomorphic papulopustular; acne conglobation; acne caused by corticoids, vitamin B12, vitamin D, INH, barbiturates, iodine and Bromide.</t>
+  </si>
+  <si>
+    <t>Wash skin thoroughly &amp; pat dry.
+Apply to affected area once daily in the evening.</t>
+  </si>
+  <si>
+    <t>Skin dryness, pruritus, erythema, redness, edema</t>
+  </si>
+  <si>
+    <t>Anti-Acne</t>
+  </si>
+  <si>
+    <t>Axcel Miconazole Cream</t>
+  </si>
+  <si>
+    <t>Axcel Miconazole cream is an antifungal medicine that is used to treat fungal infections of the skin.
+It works by killing the fungus that causes infections such as athlete’s foot, Dhobie Itch, thrush, ringworm and dry, flaky skin.</t>
+  </si>
+  <si>
+    <t>Miconazole Nitrate 2%</t>
+  </si>
+  <si>
+    <t>The most common side effects include burning sensation, irritation, itching, and redness at the site of application.</t>
+  </si>
+  <si>
+    <t>Bepanthan Ointment</t>
+  </si>
+  <si>
+    <t>Dexpanthenol</t>
+  </si>
+  <si>
+    <t>Ointment</t>
+  </si>
+  <si>
+    <t>It has a dual action benefit helping you to protect &amp; promote the natural healing of your baby’s delicate skin ,against nappy rash.
+It is used for prevention &amp; treatment of diaper rash.
+It is also used for cracked nipple for breastfeeding mothers &amp; dry &amp; cracked skin.</t>
+  </si>
+  <si>
+    <t>Most emollients can be used safely and effectively with no side effects.</t>
+  </si>
+  <si>
+    <t>A thin layer should be applied to your baby’s clean, dry bottom after each nappy change
+Nursing mother for cracked nipple
+Apply to the nipples after each breastfeeding.
+Damaged skin
+Apply one or more times daily</t>
+  </si>
+  <si>
+    <t>Baby</t>
+  </si>
+  <si>
+    <t>Beprosone Cream</t>
+  </si>
+  <si>
+    <t>Betamethasone Dipropionate 0.064 % w/w</t>
+  </si>
+  <si>
+    <t>Beprosone Cream belongs to a group of medicines called steroid. It is used to treat allergic conditions. It relieves inflammation, itching, and redness of various skin disorders. It works by preventing the release of substances in the body that cause inflammation.</t>
+  </si>
+  <si>
+    <t>Anti-flmmatory</t>
+  </si>
+  <si>
+    <t>Burning sensation and irritation at the site of application.</t>
+  </si>
+  <si>
+    <t>Bilaxten 20 mg</t>
+  </si>
+  <si>
+    <t>Bilastine 20 mg</t>
+  </si>
+  <si>
+    <t>Bilaxten contains Bilastine which is non-sedating, long-acting histamine antagonist.
+It is used in symptomatic treatment of allergic rhino-conjunctivitis (seasonal and perennial) and urticaria.</t>
+  </si>
+  <si>
+    <t>Headache, Drowsiness</t>
+  </si>
+  <si>
+    <t>Adults, including the elderly and adolescents 12 years of age and over: One tablet once daily.
+The tablet should be taken on an empty stomach.</t>
+  </si>
+  <si>
+    <t>Caldryl Lotion</t>
+  </si>
+  <si>
+    <t>Calamine 15% w/v , Zinc oxide 5% Turmeric extracts 2% ,Herbal buds (10) extracts, Bio phenol 0.05%, Glycosides, Polysaccharides base</t>
+  </si>
+  <si>
+    <t>Caldryl lotion is belongs to the class of topical antihistamines, relief of skin itching, irritation of contact dermatitis, summer prurigo, insect bites, rashes &amp; many minor skin infections.</t>
+  </si>
+  <si>
+    <t>Ant-histamine</t>
+  </si>
+  <si>
+    <t>Apply on the affected areas twice or thrice a day.</t>
+  </si>
+  <si>
+    <t>here is no side effect with recommended dose.</t>
+  </si>
+  <si>
+    <t>Candid Gel 15 g</t>
+  </si>
+  <si>
+    <t>Clotrimazole 1 % w/w</t>
+  </si>
+  <si>
+    <t>Candid gel is used to treat skin infections such as athlete's foot, jock itch, ringworm, and other fungal skin infections (candidiasis) and pityriasis (tinea versicolor).</t>
+  </si>
+  <si>
+    <t>Candid gel is evenly rubbed into the affected area 2-3 times daily.
+Treatment should continue for 2-4 weeks after the disappearance of all signs of infection to ensure mycological cure and prevent relapse.</t>
+  </si>
+  <si>
+    <t>Local irritation may occur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Candid Powder</t>
+  </si>
+  <si>
+    <t>Powder</t>
+  </si>
+  <si>
+    <t>Clotrimazole 1% w/w</t>
+  </si>
+  <si>
+    <t>Helps in prevention or treatment of fungal infections resulting out of sweat and moisture accumulation
+Relieves itching in intimate body parts, underarms, inner thighs, waistline and feet
+Soothes prickly heat on back, neck and shoulder
+Relieves skin irritation caused by redness, rashes, and swelling</t>
+  </si>
+  <si>
+    <t>To be used as a dusting powder over affected parts of the body.</t>
+  </si>
+  <si>
+    <t>hives, blistering, peeling, redness, stinging, swelling</t>
+  </si>
+  <si>
+    <t>Clindamycin Gel 10 g</t>
+  </si>
+  <si>
+    <t>Clindamycin phosphate 10 mg</t>
+  </si>
+  <si>
+    <t>Clindamycin Gel contains the active substance Clindamycin phosphate which is anti-infective.
+It is used for the treatment of acne vulgaris.</t>
+  </si>
+  <si>
+    <t>Skin irritation, Seborrhoea, Dry skin, Urticaria</t>
+  </si>
+  <si>
+    <t>Apply a thin film of Clindamycin Gel twice daily to the affected area (or) As directed by the physicians</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Daktarin Oral Gel</t>
+  </si>
+  <si>
+    <t>Miconazole 20 mg</t>
+  </si>
+  <si>
+    <t>Daktarin oral gel is used for treatment of candidiasis of the oropharynx</t>
+  </si>
+  <si>
+    <t>Adults and Children over 2 years: 2.5 ml (half a 5ml spoonful) of gel applied four times a day after food.
+Infants 4 months - 2 years: 1.25 ml (one quarter of a 5 ml spoonful) of gel applied four times a day after food.
+If the infant is 4-6 months old, and is premature or has slow development, check with your doctor before using this medicine.</t>
+  </si>
+  <si>
+    <t>Oral discomfort ,dry mouth, vomiting</t>
+  </si>
+  <si>
+    <t>Adapalene 1 mg + Clindamycin 10 mg</t>
+  </si>
+  <si>
+    <t>Deriva-C Gel</t>
+  </si>
+  <si>
+    <t>Deriva-C Gel contains the active substance Adaplene which has anti-inflammatory effect reducing soreness and irritation and Clindamyciin which has anti-infective.
+It is indicated for the topical treatment of acne vulgaris.</t>
+  </si>
+  <si>
+    <t>Apply a thin film of Deriva-C Gel at night to the affected area by gently rubbing (or) As directed by the physicians</t>
+  </si>
+  <si>
+    <t>Skin irritation, Dry Skin, Seborrhoea, Urticaria</t>
+  </si>
+  <si>
+    <t>Diazon Cream 15 g</t>
+  </si>
+  <si>
+    <t>Ketoconazole 2 g (2% w/w)</t>
+  </si>
+  <si>
+    <t>Ketoconazole cream is indicated as a primary agent in the topical treatment of Tinea corporis (ringworm of the body) and Tinea cruris (ringworm of the groin, jock itch), Tinea pedis (athlete's foot), Tinea versicolor, Candidiasis and seborrheic dermatitis.</t>
+  </si>
+  <si>
+    <t>To the affected skin and surrounding areas, once a day.
+Candidiasis, cutaneous and Seborrheic Dermatitis - To the affected skin and surrounding areas, once a day. More resistant cases may require twice a day treatment.
+Tinea corporis and Tinea cruris should be treated for at least 2-4 weeks. Candida and Pityriasis versicolor should be treated for at least 2-3 weeks.
+Seborrheic dermatitis should be treated for at least 4 weeks or until clinical clearing occurs. Tinea pedis should be treated for approximately 4 to 6 weeks.</t>
+  </si>
+  <si>
+    <t>Itching, stinging or irritation not present before therapy. .</t>
+  </si>
+  <si>
+    <t>Elovera Cream</t>
+  </si>
+  <si>
+    <t>Vitamin E (0.5%) and aloe vera extract(10%)</t>
+  </si>
+  <si>
+    <t>As a complete therapy for dry skin, dermatitis, hyperpigmentation, resulting from chronic exposure to allergens, irritants, heredity, environmental changes, aging, stress, hormonal changes, smoking or from skin problem conditions like psoriasis, atopic dermatitis, eczema, xeroderma and ichthyosis.
+Adjuvant therapy or spacing treatment with potent topical corticosteroids and retinoid.
+Lightens stretch marks, post-acne scars, post-pimple scars, freckles and other skin stains.
+Accelerates wound healing with less pain and without scaring.
+Protects the skin form damage due to sun’s UV radiation.</t>
+  </si>
+  <si>
+    <t>Skin Care</t>
+  </si>
+  <si>
+    <t>Apply to the affected area as required.
+Use regularly and specially recommended for use after washing or bathing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No side effects </t>
+  </si>
+  <si>
+    <t>Euderm Cream</t>
+  </si>
+  <si>
+    <t>Urea 10% w/w</t>
+  </si>
+  <si>
+    <t>Euderm Cream is a deep moisturizing cream for the daily care of the body.
+It replenishes moisture to dry, scaly and itchy skin conditions caused by detergent, shampoo, highly alkaline soap or chemical.</t>
+  </si>
+  <si>
+    <t>Apply to affected area(s) twice per day or as directed by a physician. Rub in until completely absorbed.</t>
+  </si>
+  <si>
+    <t>No know side effect with recommended  dose</t>
+  </si>
+  <si>
+    <t>Ezon-T Ointment 10 g</t>
+  </si>
+  <si>
+    <t>Tolnaftate 1 g (1 % w/w)</t>
+  </si>
+  <si>
+    <t>Ezon-T Ointment is used in the treatment of tinea infections.</t>
+  </si>
+  <si>
+    <t>Topical To the skin, two times a day. Therapy for a period of 2 to 3 weeks is usually sufficient; however, treatment for 4 to 6 weeks may be necessary, especially if thickening of the skin has occurred.
+The medication should be continued for 2 weeks after symptoms have disappeared. Tolnaftate may be used concurrently with an oral antifungal agent, such as Griseofulvin, in the treatment of onychomycosis or chronic infections of the scalp, palms, or skin.</t>
+  </si>
+  <si>
+    <t>Hypersensitivity (skin irritation not present before therapy</t>
+  </si>
+  <si>
+    <t>Fame Aloeheal</t>
+  </si>
+  <si>
+    <t>Aloe extract 2%, Emblica extract 2%, Soap acacia extract 2%, Tamarind extract 2%, Mangosteen extract 2% and Liquorice extract 2%.</t>
+  </si>
+  <si>
+    <t>Fame Aloeheal is used for cracked heels, cracked elbows and athlete's foot.</t>
+  </si>
+  <si>
+    <t>A slight stinging may occur in deep cracks.</t>
+  </si>
+  <si>
+    <t>FAME</t>
+  </si>
+  <si>
+    <t>Apply two times daily after cleansing</t>
+  </si>
+  <si>
+    <t>Fame Ladymax Depigmentation Cream</t>
+  </si>
+  <si>
+    <t>Fragrance. CI 51319, Isononanoate, Glyceryl stearate, PEG-100 stearate, Polawax, Sodium polyacrylate, Phenoxyethanol. Ethylhexylglycerin, Diacetyl boldine. Titanium dioxide, Polysorbate-20, Cetyl Hydroxyethylcellulose, Polymethyl Methacrylate, Trilaurin, Isononyl Aloe very juice, Pineapple juice, Licorice extract, Avocado extract, Deionised water, Propylene glycol, Caprylic/Capric triglyceride</t>
+  </si>
+  <si>
+    <t>Ladymax Depigmentation Cream promotes complexion lightening. The active ingredients contained in the cream are proven to fade away spots and freckles as well as lightening properties.</t>
+  </si>
+  <si>
+    <t>Ladymax Depigmentation Cream can be applied thinly on area of unbalanced skin tone, freckles, age spots and acne scares</t>
+  </si>
+  <si>
+    <t>There is no potential side effects.</t>
   </si>
 </sst>
 </file>
@@ -6387,8 +6767,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{980979A5-386B-408C-B3EC-E4AF101E6FBF}" name="Table1" displayName="Table1" ref="A1:L66" totalsRowShown="0">
-  <autoFilter ref="A1:L66" xr:uid="{F1214E1C-B9F7-4470-91D9-9007B782701F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{980979A5-386B-408C-B3EC-E4AF101E6FBF}" name="Table1" displayName="Table1" ref="A1:L90" totalsRowShown="0">
+  <autoFilter ref="A1:L90" xr:uid="{F1214E1C-B9F7-4470-91D9-9007B782701F}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{3C345F75-03E0-4225-982F-3E91FA3184CB}" name="Drug Name "/>
     <tableColumn id="2" xr3:uid="{0A2CE009-2A44-4851-B81D-58E77987732C}" name="Type "/>
@@ -6706,8 +7086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A006160D-3023-4657-BE38-41D1E3D61BA3}">
   <dimension ref="A1:J663"/>
   <sheetViews>
-    <sheetView topLeftCell="A468" workbookViewId="0">
-      <selection activeCell="F471" sqref="F471"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19234,7 +19614,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="472" spans="1:10" ht="126" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A472" s="11" t="s">
         <v>826</v>
       </c>
@@ -19250,7 +19630,7 @@
       <c r="E472" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="F472" s="13" t="s">
+      <c r="F472" s="7" t="s">
         <v>829</v>
       </c>
       <c r="G472" s="7" t="s">
@@ -24302,10 +24682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1214E1C-B9F7-4470-91D9-9007B782701F}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24313,6 +24693,7 @@
     <col min="1" max="1" width="28.7265625" customWidth="1"/>
     <col min="3" max="3" width="34.54296875" customWidth="1"/>
     <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
     <col min="6" max="6" width="73.08984375" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" customWidth="1"/>
     <col min="8" max="8" width="14.7265625" customWidth="1"/>
@@ -25673,7 +26054,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1909</v>
       </c>
@@ -25695,7 +26076,7 @@
       <c r="J48">
         <v>11000</v>
       </c>
-      <c r="K48" s="22" t="s">
+      <c r="K48" s="21" t="s">
         <v>1936</v>
       </c>
       <c r="L48" s="21" t="s">
@@ -25829,7 +26210,7 @@
         <v>1944</v>
       </c>
       <c r="E53" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="F53" s="21" t="s">
         <v>1945</v>
@@ -25847,7 +26228,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>1948</v>
       </c>
@@ -25858,10 +26239,10 @@
         <v>1949</v>
       </c>
       <c r="E54" t="s">
-        <v>1952</v>
-      </c>
-      <c r="F54" s="22" t="s">
         <v>1950</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>1998</v>
       </c>
       <c r="I54" t="s">
         <v>1745</v>
@@ -25872,25 +26253,25 @@
       <c r="K54" t="s">
         <v>1946</v>
       </c>
-      <c r="L54" s="22" t="s">
+      <c r="L54" s="21" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>1951</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>1953</v>
       </c>
       <c r="B55" t="s">
         <v>176</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="E55" t="s">
         <v>1281</v>
       </c>
-      <c r="F55" s="22" t="s">
-        <v>1955</v>
+      <c r="F55" s="21" t="s">
+        <v>1996</v>
       </c>
       <c r="I55" t="s">
         <v>163</v>
@@ -25899,27 +26280,27 @@
         <v>12000</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>1957</v>
-      </c>
-      <c r="L55" s="22" t="s">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>1953</v>
+      </c>
+      <c r="L55" s="21" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="B56" t="s">
         <v>213</v>
       </c>
       <c r="C56" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="E56" t="s">
         <v>891</v>
       </c>
-      <c r="F56" s="22" t="s">
-        <v>1960</v>
+      <c r="F56" s="21" t="s">
+        <v>2000</v>
       </c>
       <c r="I56" t="s">
         <v>905</v>
@@ -25930,25 +26311,25 @@
       <c r="K56" t="s">
         <v>1946</v>
       </c>
-      <c r="L56" s="22" t="s">
-        <v>1961</v>
+      <c r="L56" s="21" t="s">
+        <v>2001</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="B57" t="s">
         <v>1377</v>
       </c>
       <c r="C57" t="s">
-        <v>1963</v>
+        <v>1957</v>
       </c>
       <c r="E57" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>1964</v>
+        <v>1958</v>
       </c>
       <c r="I57" t="s">
         <v>14</v>
@@ -25957,27 +26338,27 @@
         <v>6500</v>
       </c>
       <c r="K57" t="s">
-        <v>1965</v>
+        <v>1959</v>
       </c>
       <c r="L57" s="21" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
       <c r="B58" t="s">
         <v>1378</v>
       </c>
       <c r="C58" t="s">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="E58" t="s">
         <v>1281</v>
       </c>
-      <c r="F58" s="22" t="s">
-        <v>1967</v>
+      <c r="F58" s="21" t="s">
+        <v>2002</v>
       </c>
       <c r="I58" t="s">
         <v>774</v>
@@ -25986,7 +26367,7 @@
         <v>650</v>
       </c>
       <c r="K58" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="L58" s="21" t="s">
         <v>1787</v>
@@ -25994,19 +26375,19 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="B59" t="s">
         <v>1378</v>
       </c>
       <c r="C59" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
       <c r="E59" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="I59" t="s">
         <v>36</v>
@@ -26015,27 +26396,27 @@
         <v>1000</v>
       </c>
       <c r="K59" t="s">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>1975</v>
+        <v>1968</v>
       </c>
       <c r="B60" t="s">
         <v>1379</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>1976</v>
+      <c r="C60" s="21" t="s">
+        <v>2003</v>
       </c>
       <c r="E60" t="s">
         <v>891</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>1977</v>
+        <v>1969</v>
       </c>
       <c r="I60" t="s">
         <v>258</v>
@@ -26044,91 +26425,91 @@
         <v>20650</v>
       </c>
       <c r="K60" t="s">
-        <v>1979</v>
-      </c>
-      <c r="L60" s="22" t="s">
-        <v>1978</v>
+        <v>1970</v>
+      </c>
+      <c r="L60" s="21" t="s">
+        <v>2004</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="B61" t="s">
         <v>1379</v>
       </c>
       <c r="C61" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G61" t="s">
         <v>1981</v>
       </c>
-      <c r="E61" t="s">
-        <v>1983</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>1982</v>
-      </c>
-      <c r="G61" t="s">
-        <v>1990</v>
-      </c>
       <c r="I61" t="s">
-        <v>1985</v>
+        <v>1976</v>
       </c>
       <c r="J61" s="20">
         <v>50600</v>
       </c>
       <c r="K61" t="s">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="L61" s="21" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1986</v>
+        <v>1977</v>
       </c>
       <c r="B62" t="s">
         <v>1379</v>
       </c>
-      <c r="C62" s="22" t="s">
-        <v>1987</v>
+      <c r="C62" s="21" t="s">
+        <v>1978</v>
       </c>
       <c r="E62" t="s">
         <v>891</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="G62" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
       <c r="I62" t="s">
-        <v>1985</v>
+        <v>1976</v>
       </c>
       <c r="J62" s="20">
         <v>74500</v>
       </c>
       <c r="K62" t="s">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>1991</v>
+        <v>1982</v>
       </c>
       <c r="B63" t="s">
         <v>176</v>
       </c>
       <c r="C63" t="s">
-        <v>1992</v>
+        <v>1983</v>
       </c>
       <c r="E63" t="s">
-        <v>1952</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>1993</v>
+        <v>1950</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>2007</v>
       </c>
       <c r="I63" t="s">
         <v>87</v>
@@ -26137,56 +26518,56 @@
         <v>500</v>
       </c>
       <c r="K63" t="s">
-        <v>1995</v>
+        <v>1985</v>
       </c>
       <c r="L63" s="21" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="188.5" x14ac:dyDescent="0.35">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="B64" t="s">
         <v>1379</v>
       </c>
-      <c r="C64" s="22" t="s">
-        <v>1997</v>
+      <c r="C64" s="21" t="s">
+        <v>2005</v>
       </c>
       <c r="E64" t="s">
-        <v>1952</v>
-      </c>
-      <c r="F64" s="22" t="s">
-        <v>1998</v>
+        <v>1950</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>2006</v>
       </c>
       <c r="I64" t="s">
-        <v>1985</v>
+        <v>1976</v>
       </c>
       <c r="J64">
         <v>65000</v>
       </c>
       <c r="K64" t="s">
-        <v>1995</v>
+        <v>1985</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="B65" t="s">
         <v>1378</v>
       </c>
       <c r="C65" t="s">
-        <v>2001</v>
+        <v>1989</v>
       </c>
       <c r="E65" t="s">
         <v>1281</v>
       </c>
-      <c r="F65" s="22" t="s">
-        <v>2002</v>
+      <c r="F65" s="21" t="s">
+        <v>2008</v>
       </c>
       <c r="I65" t="s">
         <v>258</v>
@@ -26195,39 +26576,792 @@
         <v>1700</v>
       </c>
       <c r="K65" t="s">
-        <v>2004</v>
-      </c>
-      <c r="L65" s="22" t="s">
-        <v>2003</v>
+        <v>1990</v>
+      </c>
+      <c r="L65" s="21" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>2005</v>
+        <v>1991</v>
       </c>
       <c r="B66" t="s">
         <v>1378</v>
       </c>
       <c r="C66" t="s">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="E66" t="s">
         <v>891</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>2007</v>
+        <v>1993</v>
       </c>
       <c r="I66" t="s">
-        <v>1985</v>
+        <v>1976</v>
       </c>
       <c r="J66">
         <v>5500</v>
       </c>
       <c r="K66" t="s">
-        <v>2008</v>
+        <v>1994</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>2009</v>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>2014</v>
+      </c>
+      <c r="I67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J67">
+        <v>2100</v>
+      </c>
+      <c r="K67" t="s">
+        <v>2012</v>
+      </c>
+      <c r="L67" s="21" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>2020</v>
+      </c>
+      <c r="I68" t="s">
+        <v>677</v>
+      </c>
+      <c r="J68">
+        <v>19600</v>
+      </c>
+      <c r="K68" s="21" t="s">
+        <v>2019</v>
+      </c>
+      <c r="L68" s="21" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I69" t="s">
+        <v>36</v>
+      </c>
+      <c r="J69">
+        <v>1300</v>
+      </c>
+      <c r="K69" s="22" t="s">
+        <v>2040</v>
+      </c>
+      <c r="L69" s="21" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I70" t="s">
+        <v>163</v>
+      </c>
+      <c r="J70">
+        <v>4500</v>
+      </c>
+      <c r="K70" t="s">
+        <v>2026</v>
+      </c>
+      <c r="L70" s="21" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B71" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I71" t="s">
+        <v>36</v>
+      </c>
+      <c r="J71">
+        <v>8500</v>
+      </c>
+      <c r="K71" t="s">
+        <v>2029</v>
+      </c>
+      <c r="L71" s="21" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B72" t="s">
+        <v>492</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>2041</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J72">
+        <v>1200</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1985</v>
+      </c>
+      <c r="L72" s="21" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>2036</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1745</v>
+      </c>
+      <c r="J73">
+        <v>1500</v>
+      </c>
+      <c r="K73" t="s">
+        <v>2037</v>
+      </c>
+      <c r="L73" s="21" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>2044</v>
+      </c>
+      <c r="I74" t="s">
+        <v>36</v>
+      </c>
+      <c r="J74">
+        <v>7000</v>
+      </c>
+      <c r="K74" t="s">
+        <v>2046</v>
+      </c>
+      <c r="L74" s="22" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>2049</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75">
+        <v>5500</v>
+      </c>
+      <c r="K75" t="s">
+        <v>2051</v>
+      </c>
+      <c r="L75" s="21" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2058</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>2055</v>
+      </c>
+      <c r="I76" t="s">
+        <v>807</v>
+      </c>
+      <c r="J76">
+        <v>18000</v>
+      </c>
+      <c r="K76" s="21" t="s">
+        <v>2056</v>
+      </c>
+      <c r="L76" s="22" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>2061</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77">
+        <v>7300</v>
+      </c>
+      <c r="K77" t="s">
+        <v>2063</v>
+      </c>
+      <c r="L77" s="21" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>2066</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1912</v>
+      </c>
+      <c r="J78">
+        <v>13000</v>
+      </c>
+      <c r="K78" t="s">
+        <v>2067</v>
+      </c>
+      <c r="L78" s="22" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B79" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>2071</v>
+      </c>
+      <c r="I79" t="s">
+        <v>258</v>
+      </c>
+      <c r="J79">
+        <v>750</v>
+      </c>
+      <c r="K79" t="s">
+        <v>2074</v>
+      </c>
+      <c r="L79" s="21" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>2077</v>
+      </c>
+      <c r="I80" t="s">
+        <v>36</v>
+      </c>
+      <c r="J80">
+        <v>3800</v>
+      </c>
+      <c r="K80" t="s">
+        <v>2079</v>
+      </c>
+      <c r="L80" s="22" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="22" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I81" t="s">
+        <v>36</v>
+      </c>
+      <c r="J81">
+        <v>6000</v>
+      </c>
+      <c r="K81" t="s">
+        <v>2085</v>
+      </c>
+      <c r="L81" s="21" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B82" t="s">
+        <v>659</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>2088</v>
+      </c>
+      <c r="I82" t="s">
+        <v>2091</v>
+      </c>
+      <c r="J82">
+        <v>9500</v>
+      </c>
+      <c r="K82" s="21" t="s">
+        <v>2089</v>
+      </c>
+      <c r="L82" s="21" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B83" t="s">
+        <v>659</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>2094</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1745</v>
+      </c>
+      <c r="J83">
+        <v>8900</v>
+      </c>
+      <c r="K83" t="s">
+        <v>2096</v>
+      </c>
+      <c r="L83" s="22" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B84" t="s">
+        <v>659</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>2099</v>
+      </c>
+      <c r="I84" t="s">
+        <v>36</v>
+      </c>
+      <c r="J84">
+        <v>25000</v>
+      </c>
+      <c r="K84" t="s">
+        <v>2101</v>
+      </c>
+      <c r="L84" s="21" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>2104</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1745</v>
+      </c>
+      <c r="J85">
+        <v>4000</v>
+      </c>
+      <c r="K85" t="s">
+        <v>2106</v>
+      </c>
+      <c r="L85" s="22" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F86" s="22" t="s">
+        <v>2109</v>
+      </c>
+      <c r="I86" t="s">
+        <v>36</v>
+      </c>
+      <c r="J86">
+        <v>12500</v>
+      </c>
+      <c r="K86" t="s">
+        <v>2112</v>
+      </c>
+      <c r="L86" s="22" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F87" s="22" t="s">
+        <v>2115</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87">
+        <v>12000</v>
+      </c>
+      <c r="K87" t="s">
+        <v>2117</v>
+      </c>
+      <c r="L87" s="21" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>2120</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1745</v>
+      </c>
+      <c r="J88">
+        <v>4700</v>
+      </c>
+      <c r="K88" t="s">
+        <v>2122</v>
+      </c>
+      <c r="L88" s="22" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>2125</v>
+      </c>
+      <c r="G89" t="s">
+        <v>2127</v>
+      </c>
+      <c r="I89" t="s">
+        <v>258</v>
+      </c>
+      <c r="J89">
+        <v>6000</v>
+      </c>
+      <c r="K89" t="s">
+        <v>2126</v>
+      </c>
+      <c r="L89" s="21" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>2131</v>
+      </c>
+      <c r="G90" t="s">
+        <v>2127</v>
+      </c>
+      <c r="I90" t="s">
+        <v>258</v>
+      </c>
+      <c r="J90">
+        <v>12000</v>
+      </c>
+      <c r="K90" t="s">
+        <v>2133</v>
+      </c>
+      <c r="L90" s="21" t="s">
+        <v>2132</v>
       </c>
     </row>
   </sheetData>
